--- a/data/trans_bre/P27F_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P27F_4_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,115 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>69,72%</t>
-        </is>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="n">
+        <v>1.165414749034244</v>
+      </c>
+      <c r="F4" s="6" t="inlineStr"/>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="n">
+        <v>0.5691079061745087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,3; 6,29</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-85,87; 1058,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="n">
+        <v>-2.636838917454575</v>
+      </c>
+      <c r="F5" s="6" t="inlineStr"/>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.8948668531606209</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="n">
+        <v>5.886465998099722</v>
+      </c>
+      <c r="F6" s="6" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>8.731505891435106</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>90,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 3,52</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-50,7; 964,04</t>
-        </is>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="n">
+        <v>1.180261675384561</v>
+      </c>
+      <c r="F7" s="6" t="inlineStr"/>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>0.9221499331703107</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>34,89%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="n">
+        <v>-0.8504443003399151</v>
+      </c>
+      <c r="F8" s="6" t="inlineStr"/>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.4945576994240219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 3,22</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-62,24; 361,05</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="n">
+        <v>3.323670044864541</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr"/>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>9.577810214051993</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,172 +727,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>60,9%</t>
-        </is>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="n">
+        <v>0.9260129715561602</v>
+      </c>
+      <c r="F10" s="6" t="inlineStr"/>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>0.4389631162126512</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,22; 3,34</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-72,09; 667,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>-1.621528665432281</v>
+      </c>
+      <c r="F11" s="6" t="inlineStr"/>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.5772243497967056</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>3.407112904670583</v>
+      </c>
+      <c r="F12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>3.967259082004809</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>64,59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,21; 2,28</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-12,56; 218,73</t>
-        </is>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="n">
+        <v>1.124386287825677</v>
+      </c>
+      <c r="F13" s="6" t="inlineStr"/>
+      <c r="G13" s="6" t="inlineStr"/>
+      <c r="H13" s="6" t="n">
+        <v>0.6552112493127462</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="n">
+        <v>-0.4097907525279246</v>
+      </c>
+      <c r="F14" s="6" t="inlineStr"/>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.2217323561061054</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="n">
+        <v>2.67353822936984</v>
+      </c>
+      <c r="F15" s="6" t="inlineStr"/>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>2.328622610414631</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
